--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\멘토링\OUTPUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A367F392-16B2-46E8-8F0B-2AA3EE722BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633AB2E-5660-4B6F-A7E6-B11D8068EB6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1050,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1143,9 +1149,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF292929"/>
       <color rgb="FF080808"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF0D7AFF"/>
       <color rgb="FF009999"/>
@@ -1476,15 +1482,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1500,7 +1506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14701630" y="7305261"/>
+          <a:off x="18080935" y="8820978"/>
           <a:ext cx="1126435" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4891,8 +4897,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -4965,8 +4972,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -5168,13 +5176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5192,7 +5200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13575195" y="4207565"/>
+          <a:off x="16954500" y="4207565"/>
           <a:ext cx="1126435" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5271,7 +5279,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -5351,7 +5362,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -5582,8 +5596,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -5663,8 +5678,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6330,8 +6346,8 @@
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6349,7 +6365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18080934" y="2186609"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:ext cx="2252870" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6429,8 +6445,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6641,16 +6658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>488673</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6665,16 +6682,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15828065" y="5201477"/>
-          <a:ext cx="2252870" cy="488674"/>
+          <a:off x="18080935" y="6228523"/>
+          <a:ext cx="2252870" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF99FF"/>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -6715,16 +6730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>488674</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6739,16 +6754,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15828065" y="5706717"/>
+          <a:off x="18080935" y="6733761"/>
           <a:ext cx="1126435" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF99FF"/>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -6878,13 +6891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6902,14 +6915,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18080935" y="5218043"/>
+          <a:off x="15828066" y="6228522"/>
           <a:ext cx="2252869" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -6950,14 +6966,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6974,14 +6990,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18080935" y="5723283"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="15828066" y="6733762"/>
+          <a:ext cx="1126435" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -7093,17 +7112,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>포탑</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>컴포넌트 설정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7175,17 +7194,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>일정 간격</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>레이져 발사 개발</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7257,17 +7276,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>감속 탄환</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>컴포넌트 설정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7339,10 +7358,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>감속 기능 개발</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7414,17 +7433,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>보스</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
             <a:t>컴포넌트 설정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7514,16 +7533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>753</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7538,8 +7557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24839543" y="1681369"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="22566344" y="1684758"/>
+          <a:ext cx="1124929" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7588,13 +7607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>753</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7612,8 +7631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24839543" y="2186609"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="22566344" y="2189998"/>
+          <a:ext cx="1124929" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7662,80 +7681,6 @@
             <a:t>컴포넌트 설정</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="직사각형 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19207369" y="2186609"/>
-          <a:ext cx="1126435" cy="488674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>대화창 기능 개발</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9627,16 +9572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9651,8 +9596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22586673" y="1681369"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="23691273" y="1684758"/>
+          <a:ext cx="1125682" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9701,16 +9646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9725,8 +9670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23713108" y="1681369"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="24816955" y="1684758"/>
+          <a:ext cx="1125682" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10110,8 +10055,11 @@
   </sheetPr>
   <dimension ref="B1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10154,45 +10102,45 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="2:62" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
       <c r="AM2" s="38"/>
       <c r="AN2" s="38"/>
       <c r="AO2" s="38"/>
@@ -10283,76 +10231,76 @@
     </row>
     <row r="4" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="106" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
       <c r="AM5" s="45"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="97"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="99"/>
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="99"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="99"/>
+      <c r="BB5" s="99"/>
+      <c r="BC5" s="99"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="99"/>
+      <c r="BF5" s="99"/>
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="99"/>
+      <c r="BI5" s="99"/>
+      <c r="BJ5" s="99"/>
     </row>
     <row r="6" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="32">
         <v>9</v>
       </c>
@@ -10487,7 +10435,7 @@
       <c r="BJ6" s="41"/>
     </row>
     <row r="7" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
@@ -10626,7 +10574,7 @@
       <c r="BJ7" s="41"/>
     </row>
     <row r="8" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="121" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="33"/>
@@ -10640,7 +10588,7 @@
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
       <c r="M8" s="83"/>
-      <c r="N8" s="114"/>
+      <c r="N8" s="116"/>
       <c r="O8" s="83"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="50"/>
@@ -10662,9 +10610,9 @@
       <c r="AG8" s="83"/>
       <c r="AH8" s="83"/>
       <c r="AI8" s="83"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="118"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="120"/>
       <c r="AP8" s="42"/>
       <c r="AQ8" s="43"/>
       <c r="AR8" s="43"/>
@@ -10688,7 +10636,7 @@
       <c r="BJ8" s="43"/>
     </row>
     <row r="9" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="120"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="33"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -10699,7 +10647,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="84"/>
       <c r="L9" s="60"/>
-      <c r="N9" s="109"/>
+      <c r="N9" s="111"/>
       <c r="O9" s="85"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="52"/>
@@ -10747,7 +10695,7 @@
       <c r="BJ9" s="43"/>
     </row>
     <row r="10" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="121"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="33"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -10759,7 +10707,7 @@
       <c r="K10" s="84"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="115"/>
+      <c r="N10" s="117"/>
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="52"/>
@@ -10806,7 +10754,7 @@
       <c r="BJ10" s="43"/>
     </row>
     <row r="11" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="112" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="33"/>
@@ -10820,7 +10768,7 @@
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
-      <c r="N11" s="109"/>
+      <c r="N11" s="111"/>
       <c r="O11" s="90"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="52"/>
@@ -10837,14 +10785,14 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="85"/>
       <c r="AD11" s="85"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
       <c r="AG11" s="85"/>
       <c r="AH11" s="91"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="117"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="119"/>
       <c r="AQ11" s="43"/>
       <c r="AR11" s="43"/>
       <c r="AS11" s="43"/>
@@ -10867,7 +10815,7 @@
       <c r="BJ11" s="43"/>
     </row>
     <row r="12" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="33"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -10879,7 +10827,7 @@
       <c r="K12" s="85"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="109"/>
+      <c r="N12" s="111"/>
       <c r="O12" s="19"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="52"/>
@@ -10904,8 +10852,8 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="46"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
       <c r="AQ12" s="43"/>
       <c r="AR12" s="43"/>
       <c r="AS12" s="43"/>
@@ -10928,7 +10876,7 @@
       <c r="BJ12" s="43"/>
     </row>
     <row r="13" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="110"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="33"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -10940,7 +10888,7 @@
       <c r="K13" s="85"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="109"/>
+      <c r="N13" s="111"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="52"/>
@@ -10986,7 +10934,7 @@
       <c r="BJ13" s="43"/>
     </row>
     <row r="14" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="33"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -10998,7 +10946,7 @@
       <c r="K14" s="92"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="109"/>
+      <c r="N14" s="111"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="52"/>
@@ -11045,7 +10993,7 @@
       <c r="BJ14" s="43"/>
     </row>
     <row r="15" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="33"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -11057,7 +11005,7 @@
       <c r="K15" s="92"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="109"/>
+      <c r="N15" s="111"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="52"/>
@@ -11104,7 +11052,7 @@
       <c r="BJ15" s="43"/>
     </row>
     <row r="16" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="33"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -11116,7 +11064,7 @@
       <c r="K16" s="92"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="109"/>
+      <c r="N16" s="111"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="52"/>
@@ -11163,7 +11111,7 @@
       <c r="BJ16" s="43"/>
     </row>
     <row r="17" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="34"/>
@@ -11177,31 +11125,31 @@
       <c r="K17" s="85"/>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="109"/>
+      <c r="N17" s="111"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="53"/>
       <c r="S17" s="85"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="122"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="124"/>
       <c r="V17" s="90"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
       <c r="Z17" s="85"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="85"/>
       <c r="AD17" s="85"/>
       <c r="AE17" s="85"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
       <c r="AH17" s="85"/>
       <c r="AI17" s="85"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="117"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="119"/>
       <c r="AM17" s="42"/>
       <c r="AQ17" s="43"/>
       <c r="AR17" s="43"/>
@@ -11225,7 +11173,7 @@
       <c r="BJ17" s="43"/>
     </row>
     <row r="18" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="112"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="35"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -11237,7 +11185,7 @@
       <c r="K18" s="88"/>
       <c r="L18" s="25"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="116"/>
+      <c r="N18" s="118"/>
       <c r="O18" s="25"/>
       <c r="P18" s="88"/>
       <c r="Q18" s="54"/>
@@ -11264,8 +11212,8 @@
       <c r="AL18" s="47"/>
       <c r="AM18" s="42"/>
       <c r="AN18" s="42"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
       <c r="AQ18" s="43"/>
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
@@ -11289,74 +11237,74 @@
     </row>
     <row r="21" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="100"/>
-      <c r="C22" s="103" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="106" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="107"/>
-      <c r="AL22" s="108"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="109"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="109"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="109"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="110"/>
       <c r="AM22" s="45"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="97"/>
-      <c r="BA22" s="97"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="97"/>
-      <c r="BH22" s="97"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="99"/>
+      <c r="BC22" s="99"/>
+      <c r="BD22" s="99"/>
+      <c r="BE22" s="99"/>
+      <c r="BF22" s="99"/>
+      <c r="BG22" s="99"/>
+      <c r="BH22" s="99"/>
+      <c r="BI22" s="99"/>
+      <c r="BJ22" s="99"/>
     </row>
     <row r="23" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="101"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="32">
         <v>9</v>
       </c>
@@ -11417,7 +11365,7 @@
       <c r="V23" s="22">
         <v>5</v>
       </c>
-      <c r="W23" s="21">
+      <c r="W23" s="22">
         <v>6</v>
       </c>
       <c r="X23" s="20">
@@ -11491,7 +11439,7 @@
       <c r="BJ23" s="41"/>
     </row>
     <row r="24" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="102"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="32" t="s">
         <v>4</v>
       </c>
@@ -11552,7 +11500,7 @@
       <c r="V24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W24" s="30" t="s">
+      <c r="W24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="X24" s="15" t="s">
@@ -11626,7 +11574,7 @@
       <c r="BJ24" s="41"/>
     </row>
     <row r="25" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="67"/>
@@ -11649,7 +11597,7 @@
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
       <c r="V25" s="71"/>
-      <c r="W25" s="77"/>
+      <c r="W25" s="97"/>
       <c r="X25" s="71"/>
       <c r="Y25" s="71"/>
       <c r="Z25" s="71"/>
@@ -11691,7 +11639,7 @@
       <c r="BJ25" s="64"/>
     </row>
     <row r="26" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -11712,7 +11660,7 @@
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
       <c r="V26" s="74"/>
-      <c r="W26" s="79"/>
+      <c r="W26" s="98"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
       <c r="Z26" s="74"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633AB2E-5660-4B6F-A7E6-B11D8068EB6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA1EFCF-C0E5-47A2-A5F4-30450C8226E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,89 +1057,89 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6297,8 +6297,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6371,8 +6372,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6527,8 +6529,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6608,8 +6611,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -6689,7 +6693,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -6761,7 +6768,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -6840,8 +6850,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7080,8 +7091,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7162,8 +7173,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7244,8 +7255,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7326,8 +7337,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7564,8 +7575,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -8412,7 +8424,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -9129,8 +9144,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -10056,10 +10072,10 @@
   <dimension ref="B1:BJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10102,45 +10118,45 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="2:62" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
       <c r="AM2" s="38"/>
       <c r="AN2" s="38"/>
       <c r="AO2" s="38"/>
@@ -10231,27 +10247,27 @@
     </row>
     <row r="4" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="101"/>
       <c r="S5" s="108" t="s">
         <v>7</v>
       </c>
@@ -10275,32 +10291,32 @@
       <c r="AK5" s="109"/>
       <c r="AL5" s="110"/>
       <c r="AM5" s="45"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
-      <c r="AU5" s="99"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="99"/>
-      <c r="AX5" s="99"/>
-      <c r="AY5" s="99"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="99"/>
-      <c r="BC5" s="99"/>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="99"/>
-      <c r="BF5" s="99"/>
-      <c r="BG5" s="99"/>
-      <c r="BH5" s="99"/>
-      <c r="BI5" s="99"/>
-      <c r="BJ5" s="99"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
+      <c r="BH5" s="102"/>
+      <c r="BI5" s="102"/>
+      <c r="BJ5" s="102"/>
     </row>
     <row r="6" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="32">
         <v>9</v>
       </c>
@@ -10435,7 +10451,7 @@
       <c r="BJ6" s="41"/>
     </row>
     <row r="7" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
@@ -11237,25 +11253,25 @@
     </row>
     <row r="21" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="102"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
       <c r="S22" s="108" t="s">
         <v>7</v>
       </c>
@@ -11279,32 +11295,32 @@
       <c r="AK22" s="109"/>
       <c r="AL22" s="110"/>
       <c r="AM22" s="45"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="99"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="99"/>
-      <c r="AZ22" s="99"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="99"/>
-      <c r="BC22" s="99"/>
-      <c r="BD22" s="99"/>
-      <c r="BE22" s="99"/>
-      <c r="BF22" s="99"/>
-      <c r="BG22" s="99"/>
-      <c r="BH22" s="99"/>
-      <c r="BI22" s="99"/>
-      <c r="BJ22" s="99"/>
+      <c r="AN22" s="102"/>
+      <c r="AO22" s="102"/>
+      <c r="AP22" s="102"/>
+      <c r="AQ22" s="102"/>
+      <c r="AR22" s="102"/>
+      <c r="AS22" s="102"/>
+      <c r="AT22" s="102"/>
+      <c r="AU22" s="102"/>
+      <c r="AV22" s="102"/>
+      <c r="AW22" s="102"/>
+      <c r="AX22" s="102"/>
+      <c r="AY22" s="102"/>
+      <c r="AZ22" s="102"/>
+      <c r="BA22" s="102"/>
+      <c r="BB22" s="102"/>
+      <c r="BC22" s="102"/>
+      <c r="BD22" s="102"/>
+      <c r="BE22" s="102"/>
+      <c r="BF22" s="102"/>
+      <c r="BG22" s="102"/>
+      <c r="BH22" s="102"/>
+      <c r="BI22" s="102"/>
+      <c r="BJ22" s="102"/>
     </row>
     <row r="23" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="32">
         <v>9</v>
       </c>
@@ -11439,7 +11455,7 @@
       <c r="BJ23" s="41"/>
     </row>
     <row r="24" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="104"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="32" t="s">
         <v>4</v>
       </c>
@@ -11574,7 +11590,7 @@
       <c r="BJ24" s="41"/>
     </row>
     <row r="25" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="125" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="67"/>
@@ -11639,7 +11655,7 @@
       <c r="BJ25" s="64"/>
     </row>
     <row r="26" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -11704,11 +11720,11 @@
     <row r="27" spans="2:62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="AN5:BJ5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:AL2"/>
-    <mergeCell ref="S5:AL5"/>
+    <mergeCell ref="AN22:BJ22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="S22:AL22"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -11722,11 +11738,11 @@
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="AN22:BJ22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="S22:AL22"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="AN5:BJ5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:AL2"/>
+    <mergeCell ref="S5:AL5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA1EFCF-C0E5-47A2-A5F4-30450C8226E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249C5BD-AA64-46D1-AF5D-FC9730BE0BEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8970" yWindow="2805" windowWidth="21600" windowHeight="11385" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="10" r:id="rId1"/>
@@ -1057,6 +1057,24 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,16 +1084,55 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,63 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10072,10 +10072,10 @@
   <dimension ref="B1:BJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10118,45 +10118,45 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="2:62" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
       <c r="AM2" s="38"/>
       <c r="AN2" s="38"/>
       <c r="AO2" s="38"/>
@@ -10247,27 +10247,27 @@
     </row>
     <row r="4" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="101"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
       <c r="S5" s="108" t="s">
         <v>7</v>
       </c>
@@ -10291,32 +10291,32 @@
       <c r="AK5" s="109"/>
       <c r="AL5" s="110"/>
       <c r="AM5" s="45"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="102"/>
-      <c r="BJ5" s="102"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="99"/>
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="99"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="99"/>
+      <c r="BB5" s="99"/>
+      <c r="BC5" s="99"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="99"/>
+      <c r="BF5" s="99"/>
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="99"/>
+      <c r="BI5" s="99"/>
+      <c r="BJ5" s="99"/>
     </row>
     <row r="6" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="104"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="32">
         <v>9</v>
       </c>
@@ -10451,7 +10451,7 @@
       <c r="BJ6" s="41"/>
     </row>
     <row r="7" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
@@ -11253,25 +11253,25 @@
     </row>
     <row r="21" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="103"/>
-      <c r="C22" s="99" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
       <c r="S22" s="108" t="s">
         <v>7</v>
       </c>
@@ -11295,32 +11295,32 @@
       <c r="AK22" s="109"/>
       <c r="AL22" s="110"/>
       <c r="AM22" s="45"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="102"/>
-      <c r="AU22" s="102"/>
-      <c r="AV22" s="102"/>
-      <c r="AW22" s="102"/>
-      <c r="AX22" s="102"/>
-      <c r="AY22" s="102"/>
-      <c r="AZ22" s="102"/>
-      <c r="BA22" s="102"/>
-      <c r="BB22" s="102"/>
-      <c r="BC22" s="102"/>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="102"/>
-      <c r="BI22" s="102"/>
-      <c r="BJ22" s="102"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="99"/>
+      <c r="BC22" s="99"/>
+      <c r="BD22" s="99"/>
+      <c r="BE22" s="99"/>
+      <c r="BF22" s="99"/>
+      <c r="BG22" s="99"/>
+      <c r="BH22" s="99"/>
+      <c r="BI22" s="99"/>
+      <c r="BJ22" s="99"/>
     </row>
     <row r="23" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="104"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="32">
         <v>9</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="BJ23" s="41"/>
     </row>
     <row r="24" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="32" t="s">
         <v>4</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="BJ24" s="41"/>
     </row>
     <row r="25" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="67"/>
@@ -11655,7 +11655,7 @@
       <c r="BJ25" s="64"/>
     </row>
     <row r="26" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="126"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -11720,11 +11720,11 @@
     <row r="27" spans="2:62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AN22:BJ22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="S22:AL22"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="AN5:BJ5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:AL2"/>
+    <mergeCell ref="S5:AL5"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -11738,11 +11738,11 @@
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="AN5:BJ5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:AL2"/>
-    <mergeCell ref="S5:AL5"/>
+    <mergeCell ref="AN22:BJ22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="S22:AL22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249C5BD-AA64-46D1-AF5D-FC9730BE0BEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831CDE5-CE2F-40BA-9921-B3F4AA7D657D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8970" yWindow="2805" windowWidth="21600" windowHeight="11385" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="10" r:id="rId1"/>
@@ -5095,15 +5095,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5119,8 +5119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16954500" y="2186609"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="25942636" y="2692225"/>
+          <a:ext cx="1125682" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5176,13 +5176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5200,8 +5200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16954500" y="4207565"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="25942636" y="4198906"/>
+          <a:ext cx="1125682" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6341,8 +6341,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>752</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
@@ -6365,8 +6365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18080934" y="2186609"/>
-          <a:ext cx="2252870" cy="488674"/>
+          <a:off x="18063616" y="2189998"/>
+          <a:ext cx="2250611" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10072,10 +10072,10 @@
   <dimension ref="B1:BJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831CDE5-CE2F-40BA-9921-B3F4AA7D657D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDA253-2845-4F3B-BCD2-275D6AB81723}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>오동근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/29~30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -753,13 +749,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,89 +1097,122 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4712,15 +4785,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4736,8 +4809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25965978" y="3702326"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="27068318" y="4198906"/>
+          <a:ext cx="1125682" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5178,13 +5251,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5200,8 +5273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25942636" y="4198906"/>
-          <a:ext cx="1125682" cy="485662"/>
+          <a:off x="25942636" y="3696679"/>
+          <a:ext cx="2251364" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6341,8 +6414,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>752</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>753</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
@@ -6365,8 +6438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18063616" y="2189998"/>
-          <a:ext cx="2250611" cy="485661"/>
+          <a:off x="19189298" y="2189998"/>
+          <a:ext cx="1124929" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6819,16 +6892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:colOff>1125681</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6843,8 +6916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18080935" y="1681369"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="19188545" y="1684758"/>
+          <a:ext cx="1125681" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,14 +7617,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>753</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1124929</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7568,7 +7641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22566344" y="1684758"/>
+          <a:off x="23691273" y="1684758"/>
           <a:ext cx="1124929" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7619,14 +7692,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>753</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1124929</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7643,15 +7716,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22566344" y="2189998"/>
+          <a:off x="23691273" y="2189998"/>
           <a:ext cx="1124929" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7731,7 +7805,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -7775,13 +7852,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>488674</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7796,8 +7873,90 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22586674" y="5706717"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="22565591" y="6707031"/>
+          <a:ext cx="1125682" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>척력 탄환</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>컴포넌트 설정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="직사각형 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27068318" y="6204803"/>
+          <a:ext cx="1125682" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7834,14 +7993,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>척력 탄환</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>컴포넌트 설정</a:t>
+            <a:t>모드 전환 개발</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
         </a:p>
@@ -7851,87 +8003,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="직사각형 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25965978" y="1681369"/>
-          <a:ext cx="2252870" cy="488674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>모드 전환 개발</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7947,8 +8027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25965978" y="2186609"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="27068318" y="6710044"/>
+          <a:ext cx="1125682" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8034,8 +8114,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -8115,7 +8195,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -8164,12 +8247,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:colOff>753</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8187,8 +8270,90 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24839543" y="6733761"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="23692026" y="6710042"/>
+          <a:ext cx="1124929" cy="485663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>전이 폭탄</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>컴포넌트 설정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="직사각형 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25942636" y="3194451"/>
+          <a:ext cx="1125682" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8225,14 +8390,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>전이 폭탄</a:t>
+            <a:t>사망후 재시작</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>컴포넌트 설정</a:t>
+            <a:t>기능 개발</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
         </a:p>
@@ -8242,95 +8407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="직사각형 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25965978" y="3197087"/>
-          <a:ext cx="1126435" cy="488674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>사망후 재시작</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
-            <a:t>기능 개발</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>488673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8345,8 +8431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27092413" y="5201477"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="28194000" y="6204804"/>
+          <a:ext cx="1125682" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8468,14 +8554,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8492,14 +8578,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25965978" y="6733761"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="24816955" y="6710042"/>
+          <a:ext cx="1125682" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -8540,14 +8629,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>1125681</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8564,8 +8653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27092414" y="3197087"/>
-          <a:ext cx="2252870" cy="488674"/>
+          <a:off x="28194000" y="3194451"/>
+          <a:ext cx="2251363" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8623,16 +8712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1125681</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8647,8 +8736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28218849" y="1681369"/>
-          <a:ext cx="2252870" cy="488674"/>
+          <a:off x="27068317" y="1684758"/>
+          <a:ext cx="2251365" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8706,16 +8795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1125681</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1125680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8730,8 +8819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30471717" y="1681369"/>
-          <a:ext cx="3379305" cy="488674"/>
+          <a:off x="29319681" y="1684758"/>
+          <a:ext cx="2251363" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8789,15 +8878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8813,8 +8902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30471717" y="5218043"/>
-          <a:ext cx="3379305" cy="488674"/>
+          <a:off x="31571045" y="1687770"/>
+          <a:ext cx="2251364" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8872,7 +8961,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
@@ -8896,8 +8985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29345283" y="3197087"/>
-          <a:ext cx="4505739" cy="488674"/>
+          <a:off x="30445364" y="3194451"/>
+          <a:ext cx="3377045" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8955,15 +9044,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8979,8 +9068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28218849" y="5218043"/>
-          <a:ext cx="2252870" cy="488674"/>
+          <a:off x="27068318" y="3194452"/>
+          <a:ext cx="1125682" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9038,13 +9127,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>488674</xdr:rowOff>
@@ -9113,16 +9202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>505239</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9137,8 +9226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19207370" y="1681369"/>
-          <a:ext cx="1126435" cy="488674"/>
+          <a:off x="22565591" y="1684758"/>
+          <a:ext cx="1125683" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9589,12 +9678,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1125681</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9612,15 +9701,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23691273" y="1684758"/>
-          <a:ext cx="1125682" cy="488674"/>
+          <a:off x="24816954" y="1684758"/>
+          <a:ext cx="2251364" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -9662,15 +9752,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>13553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9686,15 +9776,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24816955" y="1684758"/>
+          <a:off x="25942636" y="2186985"/>
           <a:ext cx="1125682" cy="488674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -9735,6 +9826,528 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
             <a:t>타이머 시간 설정 적용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1125681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1125681</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="직사각형 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E3BA2B-B205-4943-922F-064C2CB39BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29319681" y="6204804"/>
+          <a:ext cx="3377045" cy="488673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>스테이지 컨트롤러</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="직사각형 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813FB703-A886-4DD4-A024-A88217C0D65D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32696727" y="6204804"/>
+          <a:ext cx="1125682" cy="488673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>사운드 적용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="직사각형 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871B4779-4214-475E-A7F0-B87964460BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31571045" y="8311974"/>
+          <a:ext cx="1125682" cy="485662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>스테이지 컨트롤러</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="직사각형 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391002BC-238C-42C5-B0C9-CD56B4079A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33822410" y="8308963"/>
+          <a:ext cx="1125681" cy="488673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>사운드 적용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="직사각형 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9E5B34-1CAD-46F5-93B6-3C533072AD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33822409" y="1687769"/>
+          <a:ext cx="1125682" cy="5507935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>최종 합치기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>753</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="직사각형 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4516A7-FAC0-4D4F-8D48-5019DC50118F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22566344" y="2189998"/>
+          <a:ext cx="1124929" cy="485661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>대화창 기능 개발</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="직사각형 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861FBB81-7A2B-4D55-A984-BE23D183978F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18062864" y="1684758"/>
+          <a:ext cx="1125682" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700" baseline="0"/>
+            <a:t>스타트씬 개발</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="700" baseline="0"/>
         </a:p>
@@ -10069,13 +10682,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BJ27"/>
+  <dimension ref="B1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10083,12 +10696,12 @@
     <col min="1" max="1" width="1.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="9" width="3.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="41" width="13.109375" style="2" customWidth="1"/>
-    <col min="42" max="62" width="3.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="42" width="13.109375" style="2" customWidth="1"/>
+    <col min="43" max="63" width="3.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="64" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10117,50 +10730,50 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="2:62" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="125" t="s">
+    <row r="2" spans="2:63" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="38"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
       <c r="AN2" s="38"/>
       <c r="AO2" s="38"/>
-      <c r="AP2" s="36"/>
+      <c r="AP2" s="38"/>
       <c r="AQ2" s="36"/>
       <c r="AR2" s="36"/>
       <c r="AS2" s="36"/>
@@ -10180,9 +10793,10 @@
       <c r="BG2" s="36"/>
       <c r="BH2" s="36"/>
       <c r="BI2" s="36"/>
-      <c r="BJ2" s="37"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="37"/>
     </row>
-    <row r="3" spans="2:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -10244,79 +10858,81 @@
       <c r="BH3" s="4"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
     </row>
-    <row r="4" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="102" t="s">
+    <row r="4" spans="2:63" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="108" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
-      <c r="AU5" s="99"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="99"/>
-      <c r="AX5" s="99"/>
-      <c r="AY5" s="99"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="99"/>
-      <c r="BC5" s="99"/>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="99"/>
-      <c r="BF5" s="99"/>
-      <c r="BG5" s="99"/>
-      <c r="BH5" s="99"/>
-      <c r="BI5" s="99"/>
-      <c r="BJ5" s="99"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
+      <c r="BH5" s="102"/>
+      <c r="BI5" s="102"/>
+      <c r="BJ5" s="102"/>
+      <c r="BK5" s="102"/>
     </row>
-    <row r="6" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="103"/>
+    <row r="6" spans="2:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="104"/>
       <c r="C6" s="32">
         <v>9</v>
       </c>
@@ -10422,18 +11038,20 @@
       <c r="AK6" s="20">
         <v>26</v>
       </c>
-      <c r="AL6" s="23">
+      <c r="AL6" s="125">
         <v>27</v>
       </c>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="41"/>
+      <c r="AM6" s="23">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="39"/>
       <c r="AS6" s="41"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="40"/>
       <c r="AV6" s="41"/>
       <c r="AW6" s="41"/>
       <c r="AX6" s="41"/>
@@ -10449,9 +11067,10 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
       <c r="BJ6" s="41"/>
+      <c r="BK6" s="41"/>
     </row>
-    <row r="7" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104"/>
+    <row r="7" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="105"/>
       <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
@@ -10557,22 +11176,22 @@
       <c r="AK7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL7" s="16" t="s">
+      <c r="AL7" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AM7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="41"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="39"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="40"/>
       <c r="AV7" s="41"/>
       <c r="AW7" s="41"/>
       <c r="AX7" s="41"/>
@@ -10588,9 +11207,10 @@
       <c r="BH7" s="41"/>
       <c r="BI7" s="41"/>
       <c r="BJ7" s="41"/>
+      <c r="BK7" s="41"/>
     </row>
-    <row r="8" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="121" t="s">
+    <row r="8" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="119" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="33"/>
@@ -10626,22 +11246,22 @@
       <c r="AG8" s="83"/>
       <c r="AH8" s="83"/>
       <c r="AI8" s="83"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="120"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="43"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="133"/>
+      <c r="AM8" s="134"/>
+      <c r="AQ8" s="42"/>
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="44"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="43"/>
       <c r="AW8" s="44"/>
       <c r="AX8" s="44"/>
       <c r="AY8" s="44"/>
       <c r="AZ8" s="44"/>
       <c r="BA8" s="44"/>
-      <c r="BB8" s="43"/>
+      <c r="BB8" s="44"/>
       <c r="BC8" s="43"/>
       <c r="BD8" s="43"/>
       <c r="BE8" s="43"/>
@@ -10650,9 +11270,10 @@
       <c r="BH8" s="43"/>
       <c r="BI8" s="43"/>
       <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
     </row>
-    <row r="9" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="122"/>
+    <row r="9" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="120"/>
       <c r="C9" s="33"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -10686,21 +11307,21 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="42"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="46"/>
       <c r="AN9" s="42"/>
-      <c r="AQ9" s="43"/>
+      <c r="AO9" s="42"/>
       <c r="AR9" s="43"/>
       <c r="AS9" s="43"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="44"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="43"/>
       <c r="AW9" s="44"/>
       <c r="AX9" s="44"/>
       <c r="AY9" s="44"/>
       <c r="AZ9" s="44"/>
       <c r="BA9" s="44"/>
-      <c r="BB9" s="43"/>
+      <c r="BB9" s="44"/>
       <c r="BC9" s="43"/>
       <c r="BD9" s="43"/>
       <c r="BE9" s="43"/>
@@ -10709,9 +11330,10 @@
       <c r="BH9" s="43"/>
       <c r="BI9" s="43"/>
       <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
     </row>
-    <row r="10" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="123"/>
+    <row r="10" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="121"/>
       <c r="C10" s="33"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -10745,21 +11367,21 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="58"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="46"/>
       <c r="AN10" s="58"/>
-      <c r="AQ10" s="43"/>
+      <c r="AO10" s="58"/>
       <c r="AR10" s="43"/>
       <c r="AS10" s="43"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="44"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="43"/>
       <c r="AW10" s="44"/>
       <c r="AX10" s="44"/>
       <c r="AY10" s="44"/>
       <c r="AZ10" s="44"/>
       <c r="BA10" s="44"/>
-      <c r="BB10" s="43"/>
+      <c r="BB10" s="44"/>
       <c r="BC10" s="43"/>
       <c r="BD10" s="43"/>
       <c r="BE10" s="43"/>
@@ -10768,8 +11390,9 @@
       <c r="BH10" s="43"/>
       <c r="BI10" s="43"/>
       <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
     </row>
-    <row r="11" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="112" t="s">
         <v>14</v>
       </c>
@@ -10805,22 +11428,22 @@
       <c r="AF11" s="111"/>
       <c r="AG11" s="85"/>
       <c r="AH11" s="91"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="119"/>
-      <c r="AQ11" s="43"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="135"/>
+      <c r="AK11" s="135"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="137"/>
       <c r="AR11" s="43"/>
       <c r="AS11" s="43"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="44"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="43"/>
       <c r="AW11" s="44"/>
       <c r="AX11" s="44"/>
       <c r="AY11" s="44"/>
       <c r="AZ11" s="44"/>
       <c r="BA11" s="44"/>
-      <c r="BB11" s="43"/>
+      <c r="BB11" s="44"/>
       <c r="BC11" s="43"/>
       <c r="BD11" s="43"/>
       <c r="BE11" s="43"/>
@@ -10829,8 +11452,9 @@
       <c r="BH11" s="43"/>
       <c r="BI11" s="43"/>
       <c r="BJ11" s="43"/>
+      <c r="BK11" s="43"/>
     </row>
-    <row r="12" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="112"/>
       <c r="C12" s="33"/>
       <c r="D12" s="6"/>
@@ -10867,21 +11491,21 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="46"/>
-      <c r="AN12" s="115"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="46"/>
       <c r="AO12" s="115"/>
-      <c r="AQ12" s="43"/>
+      <c r="AP12" s="115"/>
       <c r="AR12" s="43"/>
       <c r="AS12" s="43"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="44"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="43"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="44"/>
       <c r="AY12" s="44"/>
       <c r="AZ12" s="44"/>
       <c r="BA12" s="44"/>
-      <c r="BB12" s="43"/>
+      <c r="BB12" s="44"/>
       <c r="BC12" s="43"/>
       <c r="BD12" s="43"/>
       <c r="BE12" s="43"/>
@@ -10890,8 +11514,9 @@
       <c r="BH12" s="43"/>
       <c r="BI12" s="43"/>
       <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
     </row>
-    <row r="13" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="112"/>
       <c r="C13" s="33"/>
       <c r="D13" s="6"/>
@@ -10927,19 +11552,19 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="46"/>
-      <c r="AQ13" s="43"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="46"/>
       <c r="AR13" s="43"/>
       <c r="AS13" s="43"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="44"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="43"/>
       <c r="AW13" s="44"/>
       <c r="AX13" s="44"/>
       <c r="AY13" s="44"/>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="44"/>
-      <c r="BB13" s="43"/>
+      <c r="BB13" s="44"/>
       <c r="BC13" s="43"/>
       <c r="BD13" s="43"/>
       <c r="BE13" s="43"/>
@@ -10948,8 +11573,9 @@
       <c r="BH13" s="43"/>
       <c r="BI13" s="43"/>
       <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
     </row>
-    <row r="14" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="112"/>
       <c r="C14" s="33"/>
       <c r="D14" s="6"/>
@@ -10986,19 +11612,19 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="46"/>
-      <c r="AQ14" s="43"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="46"/>
       <c r="AR14" s="43"/>
       <c r="AS14" s="43"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="44"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="43"/>
       <c r="AW14" s="44"/>
       <c r="AX14" s="44"/>
       <c r="AY14" s="44"/>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="44"/>
-      <c r="BB14" s="43"/>
+      <c r="BB14" s="44"/>
       <c r="BC14" s="43"/>
       <c r="BD14" s="43"/>
       <c r="BE14" s="43"/>
@@ -11007,8 +11633,9 @@
       <c r="BH14" s="43"/>
       <c r="BI14" s="43"/>
       <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
     </row>
-    <row r="15" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="112"/>
       <c r="C15" s="33"/>
       <c r="D15" s="6"/>
@@ -11045,19 +11672,19 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="46"/>
-      <c r="AQ15" s="43"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="46"/>
       <c r="AR15" s="43"/>
       <c r="AS15" s="43"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="44"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="43"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="44"/>
       <c r="AY15" s="44"/>
       <c r="AZ15" s="44"/>
       <c r="BA15" s="44"/>
-      <c r="BB15" s="43"/>
+      <c r="BB15" s="44"/>
       <c r="BC15" s="43"/>
       <c r="BD15" s="43"/>
       <c r="BE15" s="43"/>
@@ -11066,8 +11693,9 @@
       <c r="BH15" s="43"/>
       <c r="BI15" s="43"/>
       <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
     </row>
-    <row r="16" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="112"/>
       <c r="C16" s="33"/>
       <c r="D16" s="6"/>
@@ -11104,19 +11732,19 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="46"/>
-      <c r="AQ16" s="43"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="46"/>
       <c r="AR16" s="43"/>
       <c r="AS16" s="43"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="44"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="43"/>
       <c r="AW16" s="44"/>
       <c r="AX16" s="44"/>
       <c r="AY16" s="44"/>
       <c r="AZ16" s="44"/>
       <c r="BA16" s="44"/>
-      <c r="BB16" s="43"/>
+      <c r="BB16" s="44"/>
       <c r="BC16" s="43"/>
       <c r="BD16" s="43"/>
       <c r="BE16" s="43"/>
@@ -11125,8 +11753,9 @@
       <c r="BH16" s="43"/>
       <c r="BI16" s="43"/>
       <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
     </row>
-    <row r="17" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="113" t="s">
         <v>16</v>
       </c>
@@ -11148,7 +11777,7 @@
       <c r="R17" s="53"/>
       <c r="S17" s="85"/>
       <c r="T17" s="117"/>
-      <c r="U17" s="124"/>
+      <c r="U17" s="122"/>
       <c r="V17" s="90"/>
       <c r="W17" s="6"/>
       <c r="X17" s="111"/>
@@ -11163,22 +11792,22 @@
       <c r="AG17" s="111"/>
       <c r="AH17" s="85"/>
       <c r="AI17" s="85"/>
-      <c r="AJ17" s="111"/>
-      <c r="AK17" s="111"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="42"/>
-      <c r="AQ17" s="43"/>
+      <c r="AJ17" s="135"/>
+      <c r="AK17" s="135"/>
+      <c r="AL17" s="136"/>
+      <c r="AM17" s="137"/>
+      <c r="AN17" s="42"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="43"/>
-      <c r="AV17" s="44"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="43"/>
       <c r="AW17" s="44"/>
       <c r="AX17" s="44"/>
       <c r="AY17" s="44"/>
       <c r="AZ17" s="44"/>
       <c r="BA17" s="44"/>
-      <c r="BB17" s="43"/>
+      <c r="BB17" s="44"/>
       <c r="BC17" s="43"/>
       <c r="BD17" s="43"/>
       <c r="BE17" s="43"/>
@@ -11187,8 +11816,9 @@
       <c r="BH17" s="43"/>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
     </row>
-    <row r="18" spans="2:62" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="114"/>
       <c r="C18" s="35"/>
       <c r="D18" s="24"/>
@@ -11225,53 +11855,54 @@
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="42"/>
+      <c r="AL18" s="127"/>
+      <c r="AM18" s="47"/>
       <c r="AN18" s="42"/>
-      <c r="AO18" s="115"/>
+      <c r="AO18" s="42"/>
       <c r="AP18" s="115"/>
-      <c r="AQ18" s="43"/>
+      <c r="AQ18" s="115"/>
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="43"/>
-      <c r="AV18" s="44"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="43"/>
       <c r="AW18" s="44"/>
       <c r="AX18" s="44"/>
       <c r="AY18" s="44"/>
       <c r="AZ18" s="44"/>
       <c r="BA18" s="44"/>
-      <c r="BB18" s="43"/>
+      <c r="BB18" s="44"/>
       <c r="BC18" s="43"/>
       <c r="BD18" s="43"/>
       <c r="BE18" s="43"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="43"/>
+      <c r="BF18" s="43"/>
+      <c r="BG18" s="44"/>
       <c r="BH18" s="43"/>
       <c r="BI18" s="43"/>
       <c r="BJ18" s="43"/>
+      <c r="BK18" s="43"/>
     </row>
-    <row r="21" spans="2:62" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="102"/>
-      <c r="C22" s="105" t="s">
+    <row r="21" spans="2:63" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="103"/>
+      <c r="C22" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
       <c r="S22" s="108" t="s">
         <v>7</v>
       </c>
@@ -11293,34 +11924,35 @@
       <c r="AI22" s="109"/>
       <c r="AJ22" s="109"/>
       <c r="AK22" s="109"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="99"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="99"/>
-      <c r="AZ22" s="99"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="99"/>
-      <c r="BC22" s="99"/>
-      <c r="BD22" s="99"/>
-      <c r="BE22" s="99"/>
-      <c r="BF22" s="99"/>
-      <c r="BG22" s="99"/>
-      <c r="BH22" s="99"/>
-      <c r="BI22" s="99"/>
-      <c r="BJ22" s="99"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="110"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="102"/>
+      <c r="AP22" s="102"/>
+      <c r="AQ22" s="102"/>
+      <c r="AR22" s="102"/>
+      <c r="AS22" s="102"/>
+      <c r="AT22" s="102"/>
+      <c r="AU22" s="102"/>
+      <c r="AV22" s="102"/>
+      <c r="AW22" s="102"/>
+      <c r="AX22" s="102"/>
+      <c r="AY22" s="102"/>
+      <c r="AZ22" s="102"/>
+      <c r="BA22" s="102"/>
+      <c r="BB22" s="102"/>
+      <c r="BC22" s="102"/>
+      <c r="BD22" s="102"/>
+      <c r="BE22" s="102"/>
+      <c r="BF22" s="102"/>
+      <c r="BG22" s="102"/>
+      <c r="BH22" s="102"/>
+      <c r="BI22" s="102"/>
+      <c r="BJ22" s="102"/>
+      <c r="BK22" s="102"/>
     </row>
-    <row r="23" spans="2:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="103"/>
+    <row r="23" spans="2:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="104"/>
       <c r="C23" s="32">
         <v>9</v>
       </c>
@@ -11429,15 +12061,17 @@
       <c r="AL23" s="23">
         <v>27</v>
       </c>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="41"/>
+      <c r="AM23" s="23">
+        <v>30</v>
+      </c>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="39"/>
       <c r="AS23" s="41"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="40"/>
       <c r="AV23" s="41"/>
       <c r="AW23" s="41"/>
       <c r="AX23" s="41"/>
@@ -11453,9 +12087,10 @@
       <c r="BH23" s="41"/>
       <c r="BI23" s="41"/>
       <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
     </row>
-    <row r="24" spans="2:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="104"/>
+    <row r="24" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="105"/>
       <c r="C24" s="32" t="s">
         <v>4</v>
       </c>
@@ -11564,15 +12199,17 @@
       <c r="AL24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AM24" s="3"/>
+      <c r="AM24" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="41"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="39"/>
       <c r="AS24" s="41"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="40"/>
       <c r="AV24" s="41"/>
       <c r="AW24" s="41"/>
       <c r="AX24" s="41"/>
@@ -11588,10 +12225,11 @@
       <c r="BH24" s="41"/>
       <c r="BI24" s="41"/>
       <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
     </row>
-    <row r="25" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="100" t="s">
-        <v>18</v>
+    <row r="25" spans="2:63" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="123" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="66"/>
@@ -11628,9 +12266,9 @@
       <c r="AI25" s="71"/>
       <c r="AJ25" s="71"/>
       <c r="AK25" s="71"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="64"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="76"/>
       <c r="AO25" s="64"/>
       <c r="AP25" s="64"/>
       <c r="AQ25" s="64"/>
@@ -11653,9 +12291,10 @@
       <c r="BH25" s="64"/>
       <c r="BI25" s="64"/>
       <c r="BJ25" s="64"/>
+      <c r="BK25" s="64"/>
     </row>
-    <row r="26" spans="2:62" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
+    <row r="26" spans="2:63" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="124"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -11691,9 +12330,9 @@
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74"/>
       <c r="AK26" s="74"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="64"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="76"/>
       <c r="AO26" s="64"/>
       <c r="AP26" s="64"/>
       <c r="AQ26" s="64"/>
@@ -11716,33 +12355,31 @@
       <c r="BH26" s="64"/>
       <c r="BI26" s="64"/>
       <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
     </row>
-    <row r="27" spans="2:62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="AN5:BJ5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:AL2"/>
-    <mergeCell ref="S5:AL5"/>
+  <mergeCells count="20">
+    <mergeCell ref="AO22:BK22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="S22:AM22"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AO12:AP12"/>
     <mergeCell ref="N8:N18"/>
-    <mergeCell ref="AI11:AL11"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="AP18:AQ18"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="AN22:BJ22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="S22:AL22"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:AM2"/>
+    <mergeCell ref="S5:AM5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDA253-2845-4F3B-BCD2-275D6AB81723}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E67F5-01A3-403A-9D0D-44F91E036477}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,6 +1097,57 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,16 +1157,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,95 +1208,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4785,13 +4785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4809,15 +4809,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27068318" y="4198906"/>
+          <a:off x="25942636" y="4198906"/>
           <a:ext cx="1125682" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -5168,15 +5169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5192,7 +5193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25942636" y="2692225"/>
+          <a:off x="29319682" y="2189998"/>
           <a:ext cx="1125682" cy="485661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5280,7 +5281,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -7485,8 +7489,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7567,8 +7571,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
@@ -7774,16 +7778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1124930</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>488673</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7798,8 +7802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22586674" y="5201477"/>
-          <a:ext cx="2252869" cy="488674"/>
+          <a:off x="22564839" y="6204804"/>
+          <a:ext cx="2252116" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7962,7 +7966,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -8034,7 +8041,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -8164,16 +8174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1124931</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>488673</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1124930</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8188,8 +8198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24839544" y="5201477"/>
-          <a:ext cx="2252869" cy="488674"/>
+          <a:off x="24816204" y="6204804"/>
+          <a:ext cx="2251362" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8359,7 +8369,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF99FF"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="6350">
           <a:solidFill>
@@ -8629,14 +8642,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1125681</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8653,7 +8666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28194000" y="3194451"/>
+          <a:off x="29319682" y="3194451"/>
           <a:ext cx="2251363" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8961,7 +8974,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
@@ -8985,8 +8998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30445364" y="3194451"/>
-          <a:ext cx="3377045" cy="485663"/>
+          <a:off x="31571045" y="3194451"/>
+          <a:ext cx="2251364" cy="485663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9050,7 +9063,7 @@
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9069,7 +9082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27068318" y="3194452"/>
-          <a:ext cx="1125682" cy="485662"/>
+          <a:ext cx="2251364" cy="485662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10685,10 +10698,10 @@
   <dimension ref="B1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="AA13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10731,46 +10744,46 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="2:63" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
       <c r="AN2" s="38"/>
       <c r="AO2" s="38"/>
       <c r="AP2" s="38"/>
@@ -10862,77 +10875,77 @@
     </row>
     <row r="4" spans="2:63" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="131" t="s">
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="102"/>
-      <c r="BJ5" s="102"/>
-      <c r="BK5" s="102"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
     </row>
     <row r="6" spans="2:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="104"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="32">
         <v>9</v>
       </c>
@@ -11038,7 +11051,7 @@
       <c r="AK6" s="20">
         <v>26</v>
       </c>
-      <c r="AL6" s="125">
+      <c r="AL6" s="99">
         <v>27</v>
       </c>
       <c r="AM6" s="23">
@@ -11070,7 +11083,7 @@
       <c r="BK6" s="41"/>
     </row>
     <row r="7" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
@@ -11176,7 +11189,7 @@
       <c r="AK7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL7" s="126" t="s">
+      <c r="AL7" s="100" t="s">
         <v>4</v>
       </c>
       <c r="AM7" s="16" t="s">
@@ -11210,7 +11223,7 @@
       <c r="BK7" s="41"/>
     </row>
     <row r="8" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="130" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="33"/>
@@ -11224,7 +11237,7 @@
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
       <c r="M8" s="83"/>
-      <c r="N8" s="116"/>
+      <c r="N8" s="127"/>
       <c r="O8" s="83"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="50"/>
@@ -11248,8 +11261,8 @@
       <c r="AI8" s="83"/>
       <c r="AJ8" s="96"/>
       <c r="AK8" s="96"/>
-      <c r="AL8" s="133"/>
-      <c r="AM8" s="134"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="106"/>
       <c r="AQ8" s="42"/>
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
@@ -11273,7 +11286,7 @@
       <c r="BK8" s="43"/>
     </row>
     <row r="9" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="120"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="33"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -11284,7 +11297,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="84"/>
       <c r="L9" s="60"/>
-      <c r="N9" s="111"/>
+      <c r="N9" s="122"/>
       <c r="O9" s="85"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="52"/>
@@ -11333,7 +11346,7 @@
       <c r="BK9" s="43"/>
     </row>
     <row r="10" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="121"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="33"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -11345,7 +11358,7 @@
       <c r="K10" s="84"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="117"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="52"/>
@@ -11393,7 +11406,7 @@
       <c r="BK10" s="43"/>
     </row>
     <row r="11" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="123" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="33"/>
@@ -11407,7 +11420,7 @@
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
-      <c r="N11" s="111"/>
+      <c r="N11" s="122"/>
       <c r="O11" s="90"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="52"/>
@@ -11424,15 +11437,15 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="85"/>
       <c r="AD11" s="85"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
       <c r="AG11" s="85"/>
       <c r="AH11" s="91"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="135"/>
-      <c r="AL11" s="136"/>
-      <c r="AM11" s="137"/>
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="107"/>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="109"/>
       <c r="AR11" s="43"/>
       <c r="AS11" s="43"/>
       <c r="AT11" s="43"/>
@@ -11455,7 +11468,7 @@
       <c r="BK11" s="43"/>
     </row>
     <row r="12" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="112"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="33"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -11467,7 +11480,7 @@
       <c r="K12" s="85"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="111"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="19"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="52"/>
@@ -11493,8 +11506,8 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="27"/>
       <c r="AM12" s="46"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="115"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
       <c r="AR12" s="43"/>
       <c r="AS12" s="43"/>
       <c r="AT12" s="43"/>
@@ -11517,7 +11530,7 @@
       <c r="BK12" s="43"/>
     </row>
     <row r="13" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="112"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="33"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -11529,7 +11542,7 @@
       <c r="K13" s="85"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="111"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="52"/>
@@ -11576,7 +11589,7 @@
       <c r="BK13" s="43"/>
     </row>
     <row r="14" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="112"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="33"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -11588,7 +11601,7 @@
       <c r="K14" s="92"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="111"/>
+      <c r="N14" s="122"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="52"/>
@@ -11636,7 +11649,7 @@
       <c r="BK14" s="43"/>
     </row>
     <row r="15" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="112"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="33"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -11648,7 +11661,7 @@
       <c r="K15" s="92"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="111"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="52"/>
@@ -11696,7 +11709,7 @@
       <c r="BK15" s="43"/>
     </row>
     <row r="16" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="112"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="33"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -11708,7 +11721,7 @@
       <c r="K16" s="92"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="111"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="52"/>
@@ -11756,7 +11769,7 @@
       <c r="BK16" s="43"/>
     </row>
     <row r="17" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="34"/>
@@ -11770,32 +11783,32 @@
       <c r="K17" s="85"/>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="111"/>
+      <c r="N17" s="122"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="53"/>
       <c r="S17" s="85"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="122"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="133"/>
       <c r="V17" s="90"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
       <c r="Z17" s="85"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="85"/>
       <c r="AD17" s="85"/>
       <c r="AE17" s="85"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
       <c r="AH17" s="85"/>
       <c r="AI17" s="85"/>
-      <c r="AJ17" s="135"/>
-      <c r="AK17" s="135"/>
-      <c r="AL17" s="136"/>
-      <c r="AM17" s="137"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="107"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="109"/>
       <c r="AN17" s="42"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
@@ -11819,7 +11832,7 @@
       <c r="BK17" s="43"/>
     </row>
     <row r="18" spans="2:63" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="35"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -11831,7 +11844,7 @@
       <c r="K18" s="88"/>
       <c r="L18" s="25"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="118"/>
+      <c r="N18" s="129"/>
       <c r="O18" s="25"/>
       <c r="P18" s="88"/>
       <c r="Q18" s="54"/>
@@ -11855,12 +11868,12 @@
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
-      <c r="AL18" s="127"/>
+      <c r="AL18" s="101"/>
       <c r="AM18" s="47"/>
       <c r="AN18" s="42"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
+      <c r="AP18" s="126"/>
+      <c r="AQ18" s="126"/>
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
       <c r="AT18" s="43"/>
@@ -11884,75 +11897,75 @@
     </row>
     <row r="21" spans="2:63" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="103"/>
-      <c r="C22" s="99" t="s">
+      <c r="B22" s="113"/>
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="108" t="s">
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="109"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="110"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="121"/>
       <c r="AN22" s="45"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="102"/>
-      <c r="AU22" s="102"/>
-      <c r="AV22" s="102"/>
-      <c r="AW22" s="102"/>
-      <c r="AX22" s="102"/>
-      <c r="AY22" s="102"/>
-      <c r="AZ22" s="102"/>
-      <c r="BA22" s="102"/>
-      <c r="BB22" s="102"/>
-      <c r="BC22" s="102"/>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="102"/>
-      <c r="BI22" s="102"/>
-      <c r="BJ22" s="102"/>
-      <c r="BK22" s="102"/>
+      <c r="AO22" s="110"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="110"/>
+      <c r="AR22" s="110"/>
+      <c r="AS22" s="110"/>
+      <c r="AT22" s="110"/>
+      <c r="AU22" s="110"/>
+      <c r="AV22" s="110"/>
+      <c r="AW22" s="110"/>
+      <c r="AX22" s="110"/>
+      <c r="AY22" s="110"/>
+      <c r="AZ22" s="110"/>
+      <c r="BA22" s="110"/>
+      <c r="BB22" s="110"/>
+      <c r="BC22" s="110"/>
+      <c r="BD22" s="110"/>
+      <c r="BE22" s="110"/>
+      <c r="BF22" s="110"/>
+      <c r="BG22" s="110"/>
+      <c r="BH22" s="110"/>
+      <c r="BI22" s="110"/>
+      <c r="BJ22" s="110"/>
+      <c r="BK22" s="110"/>
     </row>
     <row r="23" spans="2:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="104"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="32">
         <v>9</v>
       </c>
@@ -12090,7 +12103,7 @@
       <c r="BK23" s="41"/>
     </row>
     <row r="24" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="32" t="s">
         <v>4</v>
       </c>
@@ -12228,7 +12241,7 @@
       <c r="BK24" s="41"/>
     </row>
     <row r="25" spans="2:63" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="111" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="67"/>
@@ -12266,7 +12279,7 @@
       <c r="AI25" s="71"/>
       <c r="AJ25" s="71"/>
       <c r="AK25" s="71"/>
-      <c r="AL25" s="128"/>
+      <c r="AL25" s="102"/>
       <c r="AM25" s="72"/>
       <c r="AN25" s="76"/>
       <c r="AO25" s="64"/>
@@ -12294,7 +12307,7 @@
       <c r="BK25" s="64"/>
     </row>
     <row r="26" spans="2:63" s="65" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="124"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="67"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -12330,7 +12343,7 @@
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74"/>
       <c r="AK26" s="74"/>
-      <c r="AL26" s="129"/>
+      <c r="AL26" s="103"/>
       <c r="AM26" s="75"/>
       <c r="AN26" s="76"/>
       <c r="AO26" s="64"/>
@@ -12360,11 +12373,11 @@
     <row r="27" spans="2:63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AO22:BK22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="S22:AM22"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:AM2"/>
+    <mergeCell ref="S5:AM5"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -12375,11 +12388,11 @@
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:AM2"/>
-    <mergeCell ref="S5:AM5"/>
+    <mergeCell ref="AO22:BK22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="S22:AM22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
+++ b/문서/개발일정표_VR공간퍼즐_20190906_템플릿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B190513\Desktop\switching\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E67F5-01A3-403A-9D0D-44F91E036477}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00ED22-6AB7-4FA8-96FE-F0CDCDB0B00B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2100" windowWidth="21600" windowHeight="11385" tabRatio="385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="10" r:id="rId1"/>
@@ -8420,13 +8420,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8444,7 +8444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28194000" y="6204804"/>
+          <a:off x="32696727" y="6204804"/>
           <a:ext cx="1125682" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9923,13 +9923,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9947,7 +9947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32696727" y="6204804"/>
+          <a:off x="28194000" y="6204804"/>
           <a:ext cx="1125682" cy="488673"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10698,10 +10698,10 @@
   <dimension ref="B1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="AA13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI18" sqref="AI18"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
